--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Move away from sources of interference before attempting flight 2.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>22-31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight 2.</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-31</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
